--- a/data/0. old data/0. raw/2016/accumulation/accumulation_all.xlsx
+++ b/data/0. old data/0. raw/2016/accumulation/accumulation_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="4180" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="23880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
   <si>
     <t>donations_grants</t>
   </si>
@@ -145,14 +145,247 @@
   </si>
   <si>
     <t>amgen</t>
+  </si>
+  <si>
+    <t>11'931.5</t>
+  </si>
+  <si>
+    <t>22'477.3</t>
+  </si>
+  <si>
+    <t>35'227.5</t>
+  </si>
+  <si>
+    <t>3'924.0</t>
+  </si>
+  <si>
+    <t>37'182.5</t>
+  </si>
+  <si>
+    <t>28'200.0</t>
+  </si>
+  <si>
+    <t>1'012.1</t>
+  </si>
+  <si>
+    <t>4'333.6</t>
+  </si>
+  <si>
+    <t>3'000.0</t>
+  </si>
+  <si>
+    <t>103'738.8</t>
+  </si>
+  <si>
+    <t>astellas</t>
+  </si>
+  <si>
+    <t>baxalta</t>
+  </si>
+  <si>
+    <t>120'000.00</t>
+  </si>
+  <si>
+    <t>baxter</t>
+  </si>
+  <si>
+    <t>1.750,44</t>
+  </si>
+  <si>
+    <t>2.709.450,54</t>
+  </si>
+  <si>
+    <t>17.281,75</t>
+  </si>
+  <si>
+    <t>11.715,50</t>
+  </si>
+  <si>
+    <t>152.736,00</t>
+  </si>
+  <si>
+    <t>2.402,89</t>
+  </si>
+  <si>
+    <t>bayer</t>
+  </si>
+  <si>
+    <t>4'000</t>
+  </si>
+  <si>
+    <t>19'688</t>
+  </si>
+  <si>
+    <t>bgp</t>
+  </si>
+  <si>
+    <t>6,714.00</t>
+  </si>
+  <si>
+    <t>31,279.51</t>
+  </si>
+  <si>
+    <t>63,052.73</t>
+  </si>
+  <si>
+    <t>5,937.81</t>
+  </si>
+  <si>
+    <t>10,250.00</t>
+  </si>
+  <si>
+    <t>291,882.92</t>
+  </si>
+  <si>
+    <t>640,001.39</t>
+  </si>
+  <si>
+    <t>biogen</t>
+  </si>
+  <si>
+    <t>CHF13336</t>
+  </si>
+  <si>
+    <t>CHF46014</t>
+  </si>
+  <si>
+    <t>CHF161935</t>
+  </si>
+  <si>
+    <t>CHF12737</t>
+  </si>
+  <si>
+    <t>CHF2450955</t>
+  </si>
+  <si>
+    <t>CHF652510</t>
+  </si>
+  <si>
+    <t>CHF65</t>
+  </si>
+  <si>
+    <t>CHF101870</t>
+  </si>
+  <si>
+    <t>CHF138</t>
+  </si>
+  <si>
+    <t>CHF2380849</t>
+  </si>
+  <si>
+    <t>bristol</t>
+  </si>
+  <si>
+    <t>boehring</t>
+  </si>
+  <si>
+    <t>16,899</t>
+  </si>
+  <si>
+    <t>41,282</t>
+  </si>
+  <si>
+    <t>46,008</t>
+  </si>
+  <si>
+    <t>1,784</t>
+  </si>
+  <si>
+    <t>570,684</t>
+  </si>
+  <si>
+    <t>celgene</t>
+  </si>
+  <si>
+    <t>32'000</t>
+  </si>
+  <si>
+    <t>281'987</t>
+  </si>
+  <si>
+    <t>csl</t>
+  </si>
+  <si>
+    <t>daiichi</t>
+  </si>
+  <si>
+    <t>5'903.37</t>
+  </si>
+  <si>
+    <t>8'236.73</t>
+  </si>
+  <si>
+    <t>14'550.00</t>
+  </si>
+  <si>
+    <t>5'391.20</t>
+  </si>
+  <si>
+    <t>533'682.46</t>
+  </si>
+  <si>
+    <t>eisai</t>
+  </si>
+  <si>
+    <t>3'081</t>
+  </si>
+  <si>
+    <t>7'827</t>
+  </si>
+  <si>
+    <t>153'600</t>
+  </si>
+  <si>
+    <t>39'375</t>
+  </si>
+  <si>
+    <t>48'777</t>
+  </si>
+  <si>
+    <t>176'185</t>
+  </si>
+  <si>
+    <t>28'238</t>
+  </si>
+  <si>
+    <t>143'504</t>
+  </si>
+  <si>
+    <t>eli</t>
+  </si>
+  <si>
+    <t>4'861</t>
+  </si>
+  <si>
+    <t>10'216</t>
+  </si>
+  <si>
+    <t>204'600</t>
+  </si>
+  <si>
+    <t>96'441</t>
+  </si>
+  <si>
+    <t>ferring</t>
+  </si>
+  <si>
+    <t>future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,44 +447,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="113">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -264,6 +588,50 @@
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -276,6 +644,50 @@
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,10 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -920,6 +1333,666 @@
         <v>41</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1">
+      <c r="A26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1">
+      <c r="A29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>705</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>33841.07</v>
+      </c>
+      <c r="E41">
+        <v>40639.279999999999</v>
+      </c>
+      <c r="F41">
+        <v>235006.69</v>
+      </c>
+      <c r="G41">
+        <v>15675.58</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>220751.65</v>
+      </c>
+      <c r="C42">
+        <v>169830.41</v>
+      </c>
+      <c r="E42">
+        <v>5800</v>
+      </c>
+      <c r="F42">
+        <v>39430.76</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>199397.76000000001</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>479.8</v>
+      </c>
+      <c r="E47">
+        <v>41641.25</v>
+      </c>
+      <c r="F47">
+        <v>20027.514999999999</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>34502</v>
+      </c>
+      <c r="E50">
+        <v>55228</v>
+      </c>
+      <c r="F50">
+        <v>58169</v>
+      </c>
+      <c r="G50">
+        <v>1021</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>20000</v>
+      </c>
+      <c r="C51">
+        <v>192867</v>
+      </c>
+      <c r="F51">
+        <v>2300</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>8851</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>429.24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54">
+        <v>750</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57">
+        <v>63</v>
+      </c>
+      <c r="F57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>864</v>
+      </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60">
+        <v>618</v>
+      </c>
+      <c r="E60">
+        <v>141</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60">
+        <v>115</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>4564.6400000000003</v>
+      </c>
+      <c r="E62">
+        <v>15890.94</v>
+      </c>
+      <c r="F62">
+        <v>4953.13</v>
+      </c>
+      <c r="G62">
+        <v>71.72</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>10000</v>
+      </c>
+      <c r="C63">
+        <v>148976.71</v>
+      </c>
+      <c r="E63">
+        <v>2159.09</v>
+      </c>
+      <c r="F63">
+        <v>18961.66</v>
+      </c>
+      <c r="G63">
+        <v>3036.92</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>254713.88</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
